--- a/tabla_comparativa_carton.xlsx
+++ b/tabla_comparativa_carton.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nacho\Documents\6º SEMESTRE\SENSORES E INSTRUMENTACIÓN\PRACTICA\PRACTICA3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{254A51D6-A9D1-4EDC-A05C-7C287F2B8423}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{771775DC-E4FD-4CBA-8D67-B87BBD27E88F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="3900" windowWidth="13032" windowHeight="8964" xr2:uid="{DB563F8C-BCF6-43FB-B2E1-7BC7804386C3}"/>
+    <workbookView xWindow="900" yWindow="3396" windowWidth="13032" windowHeight="8964" xr2:uid="{DB563F8C-BCF6-43FB-B2E1-7BC7804386C3}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_comparativa" sheetId="1" r:id="rId1"/>
@@ -429,8 +429,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE24048-D03C-40F0-95F5-6B933E76C52F}">
   <dimension ref="B2:N9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,10 +511,10 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.48989794855663565</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="N3">
-        <v>0.4898979485566356</v>
+        <v>0.48899999999999999</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
@@ -552,10 +552,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.63245553203367588</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="N4">
-        <v>1.1661903789690602</v>
+        <v>1.1659999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.74833147735478822</v>
+        <v>0.748</v>
       </c>
       <c r="N5">
-        <v>3.0594117081556709</v>
+        <v>3.0590000000000002</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
@@ -631,13 +631,13 @@
         <v>40</v>
       </c>
       <c r="L6">
-        <v>0.54772255800000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="M6">
-        <v>0.4898979485566356</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="N6">
-        <v>1.2649110640673518</v>
+        <v>1.264</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.3">
@@ -672,13 +672,13 @@
         <v>42</v>
       </c>
       <c r="L7">
-        <v>0.54772255800000003</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="M7">
-        <v>0.4898979485566356</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="N7">
-        <v>2.6381811916545836</v>
+        <v>2.6379999999999999</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
@@ -713,13 +713,13 @@
         <v>53</v>
       </c>
       <c r="L8">
-        <v>0.89442719100000001</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="M8">
         <v>0.4</v>
       </c>
       <c r="N8">
-        <v>1.9595917942265426</v>
+        <v>1.9590000000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.3">
@@ -760,7 +760,7 @@
         <v>0.4</v>
       </c>
       <c r="N9">
-        <v>10.229369482035537</v>
+        <v>10.228999999999999</v>
       </c>
     </row>
   </sheetData>
